--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
   <si>
     <t>Doi</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,  Zheng-yi%Ni%NULL%0,  Zheng-yi%Ni%NULL%0,  Yu%Hu%NULL%0,  Wen-hua%Liang%NULL%0,  Chun-quan%Ou%NULL%0,  Jian-xing%He%NULL%0,  Lei%Liu%NULL%0,  Hong%Shan%NULL%0,  Chun-liang%Lei%NULL%0,  David S.C.%Hui%NULL%0,  Bin%Du%NULL%0,  Lan-juan%Li%NULL%0,  Guang%Zeng%NULL%0,  Kwok-Yung%Yuen%NULL%0,  Ru-chong%Chen%NULL%0,  Chun-li%Tang%NULL%0,  Tao%Wang%NULL%0,  Ping-yan%Chen%NULL%0,  Jie%Xiang%NULL%0,  Shi-yue%Li%NULL%0,  Jin-lin%Wang%NULL%0,  Zi-jing%Liang%NULL%0,  Yi-xiang%Peng%NULL%0,  Li%Wei%NULL%0,  Yong%Liu%NULL%0,  Ya-hua%Hu%NULL%0,  Peng%Peng%NULL%0,  Jian-ming%Wang%NULL%0,  Ji-yang%Liu%NULL%0,  Zhong%Chen%NULL%0,  Gang%Li%NULL%0,  Zhi-jian%Zheng%NULL%0,  Shao-qin%Qiu%NULL%0,  Jie%Luo%NULL%0,  Chang-jiang%Ye%NULL%0,  Shao-yong%Zhu%NULL%0,  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,   Wenhua%Liang%NULL%4,   Mei%Jiang%NULL%3,   Weijie%Guan%NULL%4,   Chen%Zhan%NULL%1,   Tao%Wang%NULL%0,   Chunli%Tang%NULL%2,   Ling%Sang%NULL%0,   Jiaxing%Liu%NULL%1,   Zhengyi%Ni%NULL%3,   Yu%Hu%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chunliang%Lei%NULL%3,   Yixiang%Peng%NULL%3,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Yahua%Hu%NULL%3,   Peng%Peng%NULL%0,   Jianming%Wang%NULL%0,   Jiyang%Liu%NULL%3,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhijian%Zheng%NULL%3,   Shaoqin%Qiu%NULL%3,   Jie%Luo%NULL%0,   Changjiang%Ye%NULL%3,   Shaoyong%Zhu%NULL%3,   Xiaoqing%Liu%NULL%1,   Linling%Cheng%NULL%1,   Feng%Ye%NULL%0,   Jinping%Zheng%NULL%3,   Nuofu%Zhang%NULL%3,   Yimin%Li%NULL%3,   Jianxing%He%NULL%3,   Shiyue%Li%lishiyue@188.com%0,   Nanshan%Zhong%NULL%5,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
   </si>
 </sst>
 </file>
@@ -455,6 +473,9 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -473,13 +494,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -507,6 +531,9 @@
       <c r="H3" t="s">
         <v>17</v>
       </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -522,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -532,6 +559,9 @@
       </c>
       <c r="H4" t="s">
         <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +578,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -558,6 +588,9 @@
       </c>
       <c r="H5" t="s">
         <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="45">
   <si>
     <t>Doi</t>
   </si>
@@ -163,6 +163,30 @@
   </si>
   <si>
     <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,    Wenhua%Liang%NULL%0,    Mei%Jiang%NULL%0,    Weijie%Guan%NULL%0,    Chen%Zhan%NULL%0,    Tao%Wang%NULL%0,    Chunli%Tang%NULL%0,    Ling%Sang%NULL%0,    Jiaxing%Liu%NULL%0,    Zhengyi%Ni%NULL%0,    Yu%Hu%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chunliang%Lei%NULL%0,    Yixiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Yahua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jianming%Wang%NULL%0,    Jiyang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhijian%Zheng%NULL%0,    Shaoqin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Changjiang%Ye%NULL%0,    Shaoyong%Zhu%NULL%0,    Xiaoqing%Liu%NULL%0,    Linling%Cheng%NULL%0,    Feng%Ye%NULL%0,    Jinping%Zheng%NULL%0,    Nuofu%Zhang%NULL%0,    Yimin%Li%NULL%0,    Jianxing%He%NULL%0,    Shiyue%Li%lishiyue@188.com%0,    Nanshan%Zhong%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%13,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%6,    Chun-quan%Ou%NULL%6,    Jian-xing%He%NULL%7,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%7,    David S.C.%Hui%NULL%6,    Bin%Du%NULL%6,    Lan-juan%Li%NULL%6,    Guang%Zeng%NULL%6,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%7,    Chun-li%Tang%NULL%7,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%6,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%7,    Jin-lin%Wang%NULL%6,    Zi-jing%Liang%NULL%6,    Yi-xiang%Peng%NULL%7,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%7,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%9,    Ji-yang%Liu%NULL%7,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%7,    Shao-qin%Qiu%NULL%7,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%7,    Shao-yong%Zhu%NULL%7,    Nan-shan%Zhong%NULL%7]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,     Wenhua%Liang%NULL%0,     Mei%Jiang%NULL%0,     Weijie%Guan%NULL%0,     Chen%Zhan%NULL%0,     Tao%Wang%NULL%0,     Chunli%Tang%NULL%0,     Ling%Sang%NULL%0,     Jiaxing%Liu%NULL%0,     Zhengyi%Ni%NULL%0,     Yu%Hu%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chunliang%Lei%NULL%0,     Yixiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Yahua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jianming%Wang%NULL%0,     Jiyang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhijian%Zheng%NULL%0,     Shaoqin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Changjiang%Ye%NULL%0,     Shaoyong%Zhu%NULL%0,     Xiaoqing%Liu%NULL%0,     Linling%Cheng%NULL%0,     Feng%Ye%NULL%0,     Jinping%Zheng%NULL%0,     Nuofu%Zhang%NULL%0,     Yimin%Li%NULL%0,     Jianxing%He%NULL%0,     Shiyue%Li%lishiyue@188.com%0,     Nanshan%Zhong%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%13,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%6,     Chun-quan%Ou%NULL%6,     Jian-xing%He%NULL%7,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%7,     David S.C.%Hui%NULL%7,     Bin%Du%NULL%6,     Lan-juan%Li%NULL%6,     Guang%Zeng%NULL%6,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%7,     Chun-li%Tang%NULL%7,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%6,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%7,     Jin-lin%Wang%NULL%6,     Zi-jing%Liang%NULL%6,     Yi-xiang%Peng%NULL%7,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%7,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%9,     Ji-yang%Liu%NULL%7,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%7,     Shao-qin%Qiu%NULL%7,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%7,     Shao-yong%Zhu%NULL%7,     Nan-shan%Zhong%NULL%7]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,      Wenhua%Liang%NULL%0,      Mei%Jiang%NULL%0,      Weijie%Guan%NULL%0,      Chen%Zhan%NULL%0,      Tao%Wang%NULL%0,      Chunli%Tang%NULL%0,      Ling%Sang%NULL%0,      Jiaxing%Liu%NULL%0,      Zhengyi%Ni%NULL%0,      Yu%Hu%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chunliang%Lei%NULL%0,      Yixiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Yahua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jianming%Wang%NULL%0,      Jiyang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhijian%Zheng%NULL%0,      Shaoqin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Changjiang%Ye%NULL%0,      Shaoyong%Zhu%NULL%0,      Xiaoqing%Liu%NULL%0,      Linling%Cheng%NULL%0,      Feng%Ye%NULL%0,      Jinping%Zheng%NULL%0,      Nuofu%Zhang%NULL%0,      Yimin%Li%NULL%0,      Jianxing%He%NULL%0,      Shiyue%Li%lishiyue@188.com%0,      Nanshan%Zhong%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%13,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%6,      Chun-quan%Ou%NULL%6,      Jian-xing%He%NULL%7,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%7,      David S.C.%Hui%NULL%7,      Bin%Du%NULL%6,      Lan-juan%Li%NULL%6,      Guang%Zeng%NULL%6,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%7,      Chun-li%Tang%NULL%7,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%6,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%7,      Jin-lin%Wang%NULL%6,      Zi-jing%Liang%NULL%6,      Yi-xiang%Peng%NULL%7,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%7,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%9,      Ji-yang%Liu%NULL%7,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%7,      Shao-qin%Qiu%NULL%7,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%7,      Shao-yong%Zhu%NULL%7,      Nan-shan%Zhong%NULL%7]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,       Wenhua%Liang%NULL%0,       Mei%Jiang%NULL%0,       Weijie%Guan%NULL%0,       Chen%Zhan%NULL%0,       Tao%Wang%NULL%0,       Chunli%Tang%NULL%0,       Ling%Sang%NULL%0,       Jiaxing%Liu%NULL%0,       Zhengyi%Ni%NULL%0,       Yu%Hu%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chunliang%Lei%NULL%0,       Yixiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Yahua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jianming%Wang%NULL%0,       Jiyang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhijian%Zheng%NULL%0,       Shaoqin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Changjiang%Ye%NULL%0,       Shaoyong%Zhu%NULL%0,       Xiaoqing%Liu%NULL%0,       Linling%Cheng%NULL%0,       Feng%Ye%NULL%0,       Jinping%Zheng%NULL%0,       Nuofu%Zhang%NULL%0,       Yimin%Li%NULL%0,       Jianxing%He%NULL%0,       Shiyue%Li%lishiyue@188.com%0,       Nanshan%Zhong%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%13,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%6,       Chun-quan%Ou%NULL%6,       Jian-xing%He%NULL%7,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%7,       David S.C.%Hui%NULL%7,       Bin%Du%NULL%6,       Lan-juan%Li%NULL%6,       Guang%Zeng%NULL%6,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%7,       Chun-li%Tang%NULL%7,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%6,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%7,       Jin-lin%Wang%NULL%6,       Zi-jing%Liang%NULL%6,       Yi-xiang%Peng%NULL%7,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%7,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%9,       Ji-yang%Liu%NULL%7,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%7,       Shao-qin%Qiu%NULL%7,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%7,       Shao-yong%Zhu%NULL%7,       Nan-shan%Zhong%NULL%7]</t>
   </si>
 </sst>
 </file>
@@ -549,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -578,7 +602,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="54">
   <si>
     <t>Doi</t>
   </si>
@@ -187,6 +187,33 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%13,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%6,       Chun-quan%Ou%NULL%6,       Jian-xing%He%NULL%7,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%7,       David S.C.%Hui%NULL%7,       Bin%Du%NULL%6,       Lan-juan%Li%NULL%6,       Guang%Zeng%NULL%6,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%7,       Chun-li%Tang%NULL%7,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%6,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%7,       Jin-lin%Wang%NULL%6,       Zi-jing%Liang%NULL%6,       Yi-xiang%Peng%NULL%7,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%7,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%9,       Ji-yang%Liu%NULL%7,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%7,       Shao-qin%Qiu%NULL%7,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%7,       Shao-yong%Zhu%NULL%7,       Nan-shan%Zhong%NULL%7]</t>
+  </si>
+  <si>
+    <t>"Characteristics and Outcomes of 21 Critically Ill Patients With COVID-19 in Washington State"</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0, Eric%Yim%xref no email%0, Lindy%Klaff%xref no email%0, Sharukh%Lokhandwala%xref no email%0, Francis X.%Riedo%xref no email%0, Maria%Chong%xref no email%0, Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,        Wenhua%Liang%NULL%0,        Mei%Jiang%NULL%0,        Weijie%Guan%NULL%0,        Chen%Zhan%NULL%0,        Tao%Wang%NULL%0,        Chunli%Tang%NULL%0,        Ling%Sang%NULL%0,        Jiaxing%Liu%NULL%0,        Zhengyi%Ni%NULL%0,        Yu%Hu%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chunliang%Lei%NULL%0,        Yixiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Yahua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jianming%Wang%NULL%0,        Jiyang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhijian%Zheng%NULL%0,        Shaoqin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Changjiang%Ye%NULL%0,        Shaoyong%Zhu%NULL%0,        Xiaoqing%Liu%NULL%0,        Linling%Cheng%NULL%0,        Feng%Ye%NULL%0,        Jinping%Zheng%NULL%0,        Nuofu%Zhang%NULL%0,        Yimin%Li%NULL%0,        Jianxing%He%NULL%0,        Shiyue%Li%lishiyue@188.com%0,        Nanshan%Zhong%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%6,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%3,        Chun-quan%Ou%NULL%3,        Jian-xing%He%NULL%3,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%3,        David S.C.%Hui%NULL%4,        Bin%Du%NULL%3,        Lan-juan%Li%NULL%3,        Guang%Zeng%NULL%3,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%3,        Chun-li%Tang%NULL%3,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%3,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%3,        Jin-lin%Wang%NULL%3,        Zi-jing%Liang%NULL%3,        Yi-xiang%Peng%NULL%3,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%3,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%4,        Ji-yang%Liu%NULL%3,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%3,        Shao-qin%Qiu%NULL%3,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%3,        Shao-yong%Zhu%NULL%3,        Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,  Eric%Yim%xref no email%0,  Lindy%Klaff%xref no email%0,  Sharukh%Lokhandwala%xref no email%0,  Francis X.%Riedo%xref no email%0,  Maria%Chong%xref no email%0,  Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,         Wenhua%Liang%NULL%0,         Mei%Jiang%NULL%0,         Weijie%Guan%NULL%0,         Chen%Zhan%NULL%0,         Tao%Wang%NULL%0,         Chunli%Tang%NULL%0,         Ling%Sang%NULL%0,         Jiaxing%Liu%NULL%0,         Zhengyi%Ni%NULL%0,         Yu%Hu%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chunliang%Lei%NULL%0,         Yixiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Yahua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jianming%Wang%NULL%0,         Jiyang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhijian%Zheng%NULL%0,         Shaoqin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Changjiang%Ye%NULL%0,         Shaoyong%Zhu%NULL%0,         Xiaoqing%Liu%NULL%0,         Linling%Cheng%NULL%0,         Feng%Ye%NULL%0,         Jinping%Zheng%NULL%0,         Nuofu%Zhang%NULL%0,         Yimin%Li%NULL%0,         Jianxing%He%NULL%0,         Shiyue%Li%lishiyue@188.com%0,         Nanshan%Zhong%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%6,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%3,         Chun-quan%Ou%NULL%3,         Jian-xing%He%NULL%3,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%3,         David S.C.%Hui%NULL%4,         Bin%Du%NULL%3,         Lan-juan%Li%NULL%3,         Guang%Zeng%NULL%3,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%3,         Chun-li%Tang%NULL%3,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%3,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%3,         Jin-lin%Wang%NULL%3,         Zi-jing%Liang%NULL%3,         Yi-xiang%Peng%NULL%3,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%3,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%4,         Ji-yang%Liu%NULL%3,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%3,         Shao-qin%Qiu%NULL%3,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%3,         Shao-yong%Zhu%NULL%3,         Nan-shan%Zhong%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -538,22 +565,22 @@
         <v>43909.0</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
@@ -573,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -602,7 +629,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="60">
   <si>
     <t>Doi</t>
   </si>
@@ -214,6 +214,24 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%6,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%3,         Chun-quan%Ou%NULL%3,         Jian-xing%He%NULL%3,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%3,         David S.C.%Hui%NULL%4,         Bin%Du%NULL%3,         Lan-juan%Li%NULL%3,         Guang%Zeng%NULL%3,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%3,         Chun-li%Tang%NULL%3,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%3,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%3,         Jin-lin%Wang%NULL%3,         Zi-jing%Liang%NULL%3,         Yi-xiang%Peng%NULL%3,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%3,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%4,         Ji-yang%Liu%NULL%3,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%3,         Shao-qin%Qiu%NULL%3,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%3,         Shao-yong%Zhu%NULL%3,         Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,   Eric%Yim%xref no email%0,   Lindy%Klaff%xref no email%0,   Sharukh%Lokhandwala%xref no email%0,   Francis X.%Riedo%xref no email%0,   Maria%Chong%xref no email%0,   Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,          Wenhua%Liang%NULL%0,          Mei%Jiang%NULL%0,          Weijie%Guan%NULL%0,          Chen%Zhan%NULL%0,          Tao%Wang%NULL%0,          Chunli%Tang%NULL%0,          Ling%Sang%NULL%0,          Jiaxing%Liu%NULL%0,          Zhengyi%Ni%NULL%0,          Yu%Hu%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chunliang%Lei%NULL%0,          Yixiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Yahua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jianming%Wang%NULL%0,          Jiyang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhijian%Zheng%NULL%0,          Shaoqin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Changjiang%Ye%NULL%0,          Shaoyong%Zhu%NULL%0,          Xiaoqing%Liu%NULL%0,          Linling%Cheng%NULL%0,          Feng%Ye%NULL%0,          Jinping%Zheng%NULL%0,          Nuofu%Zhang%NULL%0,          Yimin%Li%NULL%0,          Jianxing%He%NULL%0,          Shiyue%Li%lishiyue@188.com%0,          Nanshan%Zhong%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%6,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%3,          Chun-quan%Ou%NULL%3,          Jian-xing%He%NULL%3,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%3,          David S.C.%Hui%NULL%4,          Bin%Du%NULL%3,          Lan-juan%Li%NULL%3,          Guang%Zeng%NULL%3,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%3,          Chun-li%Tang%NULL%3,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%3,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%3,          Jin-lin%Wang%NULL%3,          Zi-jing%Liang%NULL%3,          Yi-xiang%Peng%NULL%3,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%3,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%4,          Ji-yang%Liu%NULL%3,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%3,          Shao-qin%Qiu%NULL%3,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%3,          Shao-yong%Zhu%NULL%3,          Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,    Eric%Yim%xref no email%0,    Lindy%Klaff%xref no email%0,    Sharukh%Lokhandwala%xref no email%0,    Francis X.%Riedo%xref no email%0,    Maria%Chong%xref no email%0,    Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,           Wenhua%Liang%NULL%0,           Mei%Jiang%NULL%0,           Weijie%Guan%NULL%0,           Chen%Zhan%NULL%0,           Tao%Wang%NULL%0,           Chunli%Tang%NULL%0,           Ling%Sang%NULL%0,           Jiaxing%Liu%NULL%0,           Zhengyi%Ni%NULL%0,           Yu%Hu%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chunliang%Lei%NULL%0,           Yixiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Yahua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jianming%Wang%NULL%0,           Jiyang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhijian%Zheng%NULL%0,           Shaoqin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Changjiang%Ye%NULL%0,           Shaoyong%Zhu%NULL%0,           Xiaoqing%Liu%NULL%0,           Linling%Cheng%NULL%0,           Feng%Ye%NULL%0,           Jinping%Zheng%NULL%0,           Nuofu%Zhang%NULL%0,           Yimin%Li%NULL%0,           Jianxing%He%NULL%0,           Shiyue%Li%lishiyue@188.com%0,           Nanshan%Zhong%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%8,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%4,           Chun-quan%Ou%NULL%4,           Jian-xing%He%NULL%4,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%4,           David S.C.%Hui%NULL%5,           Bin%Du%NULL%4,           Lan-juan%Li%NULL%4,           Guang%Zeng%NULL%4,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%4,           Chun-li%Tang%NULL%4,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%4,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%4,           Jin-lin%Wang%NULL%4,           Zi-jing%Liang%NULL%4,           Yi-xiang%Peng%NULL%4,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%4,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%6,           Ji-yang%Liu%NULL%4,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%4,           Shao-qin%Qiu%NULL%4,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%4,           Shao-yong%Zhu%NULL%4,           Nan-shan%Zhong%NULL%4]</t>
   </si>
 </sst>
 </file>
@@ -571,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -600,7 +618,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -629,7 +647,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="66">
   <si>
     <t>Doi</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%8,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%4,           Chun-quan%Ou%NULL%4,           Jian-xing%He%NULL%4,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%4,           David S.C.%Hui%NULL%5,           Bin%Du%NULL%4,           Lan-juan%Li%NULL%4,           Guang%Zeng%NULL%4,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%4,           Chun-li%Tang%NULL%4,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%4,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%4,           Jin-lin%Wang%NULL%4,           Zi-jing%Liang%NULL%4,           Yi-xiang%Peng%NULL%4,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%4,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%6,           Ji-yang%Liu%NULL%4,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%4,           Shao-qin%Qiu%NULL%4,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%4,           Shao-yong%Zhu%NULL%4,           Nan-shan%Zhong%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,     Eric%Yim%xref no email%0,     Lindy%Klaff%xref no email%0,     Sharukh%Lokhandwala%xref no email%0,     Francis X.%Riedo%xref no email%0,     Maria%Chong%xref no email%0,     Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,            Wenhua%Liang%NULL%0,            Mei%Jiang%NULL%0,            Weijie%Guan%NULL%0,            Chen%Zhan%NULL%0,            Tao%Wang%NULL%0,            Chunli%Tang%NULL%0,            Ling%Sang%NULL%0,            Jiaxing%Liu%NULL%0,            Zhengyi%Ni%NULL%0,            Yu%Hu%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chunliang%Lei%NULL%0,            Yixiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Yahua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jianming%Wang%NULL%0,            Jiyang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhijian%Zheng%NULL%0,            Shaoqin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Changjiang%Ye%NULL%0,            Shaoyong%Zhu%NULL%0,            Xiaoqing%Liu%NULL%0,            Linling%Cheng%NULL%0,            Feng%Ye%NULL%0,            Jinping%Zheng%NULL%0,            Nuofu%Zhang%NULL%0,            Yimin%Li%NULL%0,            Jianxing%He%NULL%0,            Shiyue%Li%lishiyue@188.com%0,            Nanshan%Zhong%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%6,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%3,            Chun-quan%Ou%NULL%3,            Jian-xing%He%NULL%3,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%3,            David S.C.%Hui%NULL%4,            Bin%Du%NULL%3,            Lan-juan%Li%NULL%3,            Guang%Zeng%NULL%3,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%3,            Chun-li%Tang%NULL%3,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%3,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%3,            Jin-lin%Wang%NULL%3,            Zi-jing%Liang%NULL%3,            Yi-xiang%Peng%NULL%3,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%3,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%4,            Ji-yang%Liu%NULL%3,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%3,            Shao-qin%Qiu%NULL%3,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%3,            Shao-yong%Zhu%NULL%3,            Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,      Eric%Yim%xref no email%0,      Lindy%Klaff%xref no email%0,      Sharukh%Lokhandwala%xref no email%0,      Francis X.%Riedo%xref no email%0,      Maria%Chong%xref no email%0,      Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,             Wenhua%Liang%NULL%0,             Mei%Jiang%NULL%0,             Weijie%Guan%NULL%0,             Chen%Zhan%NULL%0,             Tao%Wang%NULL%0,             Chunli%Tang%NULL%0,             Ling%Sang%NULL%0,             Jiaxing%Liu%NULL%0,             Zhengyi%Ni%NULL%0,             Yu%Hu%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chunliang%Lei%NULL%0,             Yixiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Yahua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jianming%Wang%NULL%0,             Jiyang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhijian%Zheng%NULL%0,             Shaoqin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Changjiang%Ye%NULL%0,             Shaoyong%Zhu%NULL%0,             Xiaoqing%Liu%NULL%0,             Linling%Cheng%NULL%0,             Feng%Ye%NULL%0,             Jinping%Zheng%NULL%0,             Nuofu%Zhang%NULL%0,             Yimin%Li%NULL%0,             Jianxing%He%NULL%0,             Shiyue%Li%lishiyue@188.com%0,             Nanshan%Zhong%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%6,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%3,             Chun-quan%Ou%NULL%3,             Jian-xing%He%NULL%3,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%3,             David S.C.%Hui%NULL%4,             Bin%Du%NULL%3,             Lan-juan%Li%NULL%3,             Guang%Zeng%NULL%3,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%3,             Chun-li%Tang%NULL%3,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%3,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%3,             Jin-lin%Wang%NULL%3,             Zi-jing%Liang%NULL%3,             Yi-xiang%Peng%NULL%3,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%3,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%4,             Ji-yang%Liu%NULL%3,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%3,             Shao-qin%Qiu%NULL%3,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%3,             Shao-yong%Zhu%NULL%3,             Nan-shan%Zhong%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -589,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -618,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -647,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="69">
   <si>
     <t>Doi</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%6,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%3,             Chun-quan%Ou%NULL%3,             Jian-xing%He%NULL%3,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%3,             David S.C.%Hui%NULL%4,             Bin%Du%NULL%3,             Lan-juan%Li%NULL%3,             Guang%Zeng%NULL%3,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%3,             Chun-li%Tang%NULL%3,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%3,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%3,             Jin-lin%Wang%NULL%3,             Zi-jing%Liang%NULL%3,             Yi-xiang%Peng%NULL%3,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%3,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%4,             Ji-yang%Liu%NULL%3,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%3,             Shao-qin%Qiu%NULL%3,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%3,             Shao-yong%Zhu%NULL%3,             Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,       Eric%Yim%xref no email%0,       Lindy%Klaff%xref no email%0,       Sharukh%Lokhandwala%xref no email%0,       Francis X.%Riedo%xref no email%0,       Maria%Chong%xref no email%0,       Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,              Wenhua%Liang%NULL%0,              Mei%Jiang%NULL%0,              Weijie%Guan%NULL%0,              Chen%Zhan%NULL%0,              Tao%Wang%NULL%0,              Chunli%Tang%NULL%0,              Ling%Sang%NULL%0,              Jiaxing%Liu%NULL%0,              Zhengyi%Ni%NULL%0,              Yu%Hu%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chunliang%Lei%NULL%0,              Yixiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Yahua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jianming%Wang%NULL%0,              Jiyang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhijian%Zheng%NULL%0,              Shaoqin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Changjiang%Ye%NULL%0,              Shaoyong%Zhu%NULL%0,              Xiaoqing%Liu%NULL%0,              Linling%Cheng%NULL%0,              Feng%Ye%NULL%0,              Jinping%Zheng%NULL%0,              Nuofu%Zhang%NULL%0,              Yimin%Li%NULL%0,              Jianxing%He%NULL%0,              Shiyue%Li%lishiyue@188.com%0,              Nanshan%Zhong%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%6,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%3,              Chun-quan%Ou%NULL%3,              Jian-xing%He%NULL%3,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%3,              David S.C.%Hui%NULL%4,              Bin%Du%NULL%3,              Lan-juan%Li%NULL%3,              Guang%Zeng%NULL%3,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%3,              Chun-li%Tang%NULL%3,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%3,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%3,              Jin-lin%Wang%NULL%3,              Zi-jing%Liang%NULL%3,              Yi-xiang%Peng%NULL%3,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%3,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%4,              Ji-yang%Liu%NULL%3,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%3,              Shao-qin%Qiu%NULL%3,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%3,              Shao-yong%Zhu%NULL%3,              Nan-shan%Zhong%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -607,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -636,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -665,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="72">
   <si>
     <t>Doi</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%6,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%3,              Chun-quan%Ou%NULL%3,              Jian-xing%He%NULL%3,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%3,              David S.C.%Hui%NULL%4,              Bin%Du%NULL%3,              Lan-juan%Li%NULL%3,              Guang%Zeng%NULL%3,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%3,              Chun-li%Tang%NULL%3,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%3,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%3,              Jin-lin%Wang%NULL%3,              Zi-jing%Liang%NULL%3,              Yi-xiang%Peng%NULL%3,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%3,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%4,              Ji-yang%Liu%NULL%3,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%3,              Shao-qin%Qiu%NULL%3,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%3,              Shao-yong%Zhu%NULL%3,              Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,        Eric%Yim%xref no email%0,        Lindy%Klaff%xref no email%0,        Sharukh%Lokhandwala%xref no email%0,        Francis X.%Riedo%xref no email%0,        Maria%Chong%xref no email%0,        Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,               Wenhua%Liang%NULL%0,               Mei%Jiang%NULL%0,               Weijie%Guan%NULL%0,               Chen%Zhan%NULL%0,               Tao%Wang%NULL%0,               Chunli%Tang%NULL%0,               Ling%Sang%NULL%0,               Jiaxing%Liu%NULL%0,               Zhengyi%Ni%NULL%0,               Yu%Hu%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chunliang%Lei%NULL%0,               Yixiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Yahua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jianming%Wang%NULL%0,               Jiyang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhijian%Zheng%NULL%0,               Shaoqin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Changjiang%Ye%NULL%0,               Shaoyong%Zhu%NULL%0,               Xiaoqing%Liu%NULL%0,               Linling%Cheng%NULL%0,               Feng%Ye%NULL%0,               Jinping%Zheng%NULL%0,               Nuofu%Zhang%NULL%0,               Yimin%Li%NULL%0,               Jianxing%He%NULL%0,               Shiyue%Li%lishiyue@188.com%0,               Nanshan%Zhong%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%6,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%3,               Chun-quan%Ou%NULL%3,               Jian-xing%He%NULL%3,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%3,               David S.C.%Hui%NULL%4,               Bin%Du%NULL%3,               Lan-juan%Li%NULL%3,               Guang%Zeng%NULL%3,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%3,               Chun-li%Tang%NULL%3,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%3,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%3,               Jin-lin%Wang%NULL%3,               Zi-jing%Liang%NULL%3,               Yi-xiang%Peng%NULL%3,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%3,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%4,               Ji-yang%Liu%NULL%3,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%3,               Shao-qin%Qiu%NULL%3,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%3,               Shao-yong%Zhu%NULL%3,               Nan-shan%Zhong%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -616,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -645,7 +654,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -674,7 +683,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="78">
   <si>
     <t>Doi</t>
   </si>
@@ -268,6 +268,24 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%6,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%3,               Chun-quan%Ou%NULL%3,               Jian-xing%He%NULL%3,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%3,               David S.C.%Hui%NULL%4,               Bin%Du%NULL%3,               Lan-juan%Li%NULL%3,               Guang%Zeng%NULL%3,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%3,               Chun-li%Tang%NULL%3,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%3,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%3,               Jin-lin%Wang%NULL%3,               Zi-jing%Liang%NULL%3,               Yi-xiang%Peng%NULL%3,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%3,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%4,               Ji-yang%Liu%NULL%3,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%3,               Shao-qin%Qiu%NULL%3,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%3,               Shao-yong%Zhu%NULL%3,               Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,         Eric%Yim%xref no email%0,         Lindy%Klaff%xref no email%0,         Sharukh%Lokhandwala%xref no email%0,         Francis X.%Riedo%xref no email%0,         Maria%Chong%xref no email%0,         Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                Wenhua%Liang%NULL%0,                Mei%Jiang%NULL%0,                Weijie%Guan%NULL%0,                Chen%Zhan%NULL%0,                Tao%Wang%NULL%0,                Chunli%Tang%NULL%0,                Ling%Sang%NULL%0,                Jiaxing%Liu%NULL%0,                Zhengyi%Ni%NULL%0,                Yu%Hu%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chunliang%Lei%NULL%0,                Yixiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Yahua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jianming%Wang%NULL%0,                Jiyang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhijian%Zheng%NULL%0,                Shaoqin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Changjiang%Ye%NULL%0,                Shaoyong%Zhu%NULL%0,                Xiaoqing%Liu%NULL%0,                Linling%Cheng%NULL%0,                Feng%Ye%NULL%0,                Jinping%Zheng%NULL%0,                Nuofu%Zhang%NULL%0,                Yimin%Li%NULL%0,                Jianxing%He%NULL%0,                Shiyue%Li%lishiyue@188.com%0,                Nanshan%Zhong%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%6,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%3,                Chun-quan%Ou%NULL%3,                Jian-xing%He%NULL%3,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%3,                David S.C.%Hui%NULL%4,                Bin%Du%NULL%3,                Lan-juan%Li%NULL%3,                Guang%Zeng%NULL%3,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%3,                Chun-li%Tang%NULL%3,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%3,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%3,                Jin-lin%Wang%NULL%3,                Zi-jing%Liang%NULL%3,                Yi-xiang%Peng%NULL%3,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%3,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%4,                Ji-yang%Liu%NULL%3,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%3,                Shao-qin%Qiu%NULL%3,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%3,                Shao-yong%Zhu%NULL%3,                Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,          Eric%Yim%xref no email%0,          Lindy%Klaff%xref no email%0,          Sharukh%Lokhandwala%xref no email%0,          Francis X.%Riedo%xref no email%0,          Maria%Chong%xref no email%0,          Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                 Wenhua%Liang%NULL%0,                 Mei%Jiang%NULL%0,                 Weijie%Guan%NULL%0,                 Chen%Zhan%NULL%0,                 Tao%Wang%NULL%0,                 Chunli%Tang%NULL%0,                 Ling%Sang%NULL%0,                 Jiaxing%Liu%NULL%0,                 Zhengyi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chunliang%Lei%NULL%0,                 Yixiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Yahua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jianming%Wang%NULL%0,                 Jiyang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhijian%Zheng%NULL%0,                 Shaoqin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Changjiang%Ye%NULL%0,                 Shaoyong%Zhu%NULL%0,                 Xiaoqing%Liu%NULL%0,                 Linling%Cheng%NULL%0,                 Feng%Ye%NULL%0,                 Jinping%Zheng%NULL%0,                 Nuofu%Zhang%NULL%0,                 Yimin%Li%NULL%0,                 Jianxing%He%NULL%0,                 Shiyue%Li%lishiyue@188.com%0,                 Nanshan%Zhong%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%6,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%3,                 Chun-quan%Ou%NULL%3,                 Jian-xing%He%NULL%3,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%3,                 David S.C.%Hui%NULL%4,                 Bin%Du%NULL%3,                 Lan-juan%Li%NULL%3,                 Guang%Zeng%NULL%3,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%3,                 Chun-li%Tang%NULL%3,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%3,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%3,                 Jin-lin%Wang%NULL%3,                 Zi-jing%Liang%NULL%3,                 Yi-xiang%Peng%NULL%3,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%3,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%4,                 Ji-yang%Liu%NULL%3,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%3,                 Shao-qin%Qiu%NULL%3,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%3,                 Shao-yong%Zhu%NULL%3,                 Nan-shan%Zhong%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -625,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -654,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -683,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="81">
   <si>
     <t>Doi</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%6,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%3,                 Chun-quan%Ou%NULL%3,                 Jian-xing%He%NULL%3,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%3,                 David S.C.%Hui%NULL%4,                 Bin%Du%NULL%3,                 Lan-juan%Li%NULL%3,                 Guang%Zeng%NULL%3,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%3,                 Chun-li%Tang%NULL%3,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%3,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%3,                 Jin-lin%Wang%NULL%3,                 Zi-jing%Liang%NULL%3,                 Yi-xiang%Peng%NULL%3,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%3,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%4,                 Ji-yang%Liu%NULL%3,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%3,                 Shao-qin%Qiu%NULL%3,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%3,                 Shao-yong%Zhu%NULL%3,                 Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,           Eric%Yim%xref no email%0,           Lindy%Klaff%xref no email%0,           Sharukh%Lokhandwala%xref no email%0,           Francis X.%Riedo%xref no email%0,           Maria%Chong%xref no email%0,           Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                  Wenhua%Liang%NULL%0,                  Mei%Jiang%NULL%0,                  Weijie%Guan%NULL%0,                  Chen%Zhan%NULL%0,                  Tao%Wang%NULL%0,                  Chunli%Tang%NULL%0,                  Ling%Sang%NULL%0,                  Jiaxing%Liu%NULL%0,                  Zhengyi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chunliang%Lei%NULL%0,                  Yixiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Yahua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jianming%Wang%NULL%0,                  Jiyang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhijian%Zheng%NULL%0,                  Shaoqin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Changjiang%Ye%NULL%0,                  Shaoyong%Zhu%NULL%0,                  Xiaoqing%Liu%NULL%0,                  Linling%Cheng%NULL%0,                  Feng%Ye%NULL%0,                  Jinping%Zheng%NULL%0,                  Nuofu%Zhang%NULL%0,                  Yimin%Li%NULL%0,                  Jianxing%He%NULL%0,                  Shiyue%Li%lishiyue@188.com%0,                  Nanshan%Zhong%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%6,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%3,                  Chun-quan%Ou%NULL%3,                  Jian-xing%He%NULL%3,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%3,                  David S.C.%Hui%NULL%4,                  Bin%Du%NULL%3,                  Lan-juan%Li%NULL%3,                  Guang%Zeng%NULL%3,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%3,                  Chun-li%Tang%NULL%3,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%3,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%3,                  Jin-lin%Wang%NULL%3,                  Zi-jing%Liang%NULL%3,                  Yi-xiang%Peng%NULL%3,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%3,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%4,                  Ji-yang%Liu%NULL%3,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%3,                  Shao-qin%Qiu%NULL%3,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%3,                  Shao-yong%Zhu%NULL%3,                  Nan-shan%Zhong%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -643,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -672,7 +681,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -701,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="90">
   <si>
     <t>Doi</t>
   </si>
@@ -295,6 +295,33 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%6,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%3,                  Chun-quan%Ou%NULL%3,                  Jian-xing%He%NULL%3,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%3,                  David S.C.%Hui%NULL%4,                  Bin%Du%NULL%3,                  Lan-juan%Li%NULL%3,                  Guang%Zeng%NULL%3,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%3,                  Chun-li%Tang%NULL%3,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%3,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%3,                  Jin-lin%Wang%NULL%3,                  Zi-jing%Liang%NULL%3,                  Yi-xiang%Peng%NULL%3,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%3,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%4,                  Ji-yang%Liu%NULL%3,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%3,                  Shao-qin%Qiu%NULL%3,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%3,                  Shao-yong%Zhu%NULL%3,                  Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>"Characteristics of and Important Lessons From the Coronavirus Disease 2019 (COVID-19) Outbreak in China"</t>
+  </si>
+  <si>
+    <t>[Zunyou%Wu%xref no email%1, Jennifer M.%McGoogan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,            Eric%Yim%xref no email%0,            Lindy%Klaff%xref no email%0,            Sharukh%Lokhandwala%xref no email%0,            Francis X.%Riedo%xref no email%0,            Maria%Chong%xref no email%0,            Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                   Wenhua%Liang%NULL%0,                   Mei%Jiang%NULL%0,                   Weijie%Guan%NULL%0,                   Chen%Zhan%NULL%0,                   Tao%Wang%NULL%0,                   Chunli%Tang%NULL%0,                   Ling%Sang%NULL%0,                   Jiaxing%Liu%NULL%0,                   Zhengyi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chunliang%Lei%NULL%0,                   Yixiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Yahua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jianming%Wang%NULL%0,                   Jiyang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhijian%Zheng%NULL%0,                   Shaoqin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Changjiang%Ye%NULL%0,                   Shaoyong%Zhu%NULL%0,                   Xiaoqing%Liu%NULL%0,                   Linling%Cheng%NULL%0,                   Feng%Ye%NULL%0,                   Jinping%Zheng%NULL%0,                   Nuofu%Zhang%NULL%0,                   Yimin%Li%NULL%0,                   Jianxing%He%NULL%0,                   Shiyue%Li%lishiyue@188.com%0,                   Nanshan%Zhong%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%6,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%3,                   Chun-quan%Ou%NULL%3,                   Jian-xing%He%NULL%3,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%3,                   David S.C.%Hui%NULL%4,                   Bin%Du%NULL%3,                   Lan-juan%Li%NULL%3,                   Guang%Zeng%NULL%3,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%3,                   Chun-li%Tang%NULL%3,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%3,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%3,                   Jin-lin%Wang%NULL%3,                   Zi-jing%Liang%NULL%3,                   Yi-xiang%Peng%NULL%3,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%3,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%4,                   Ji-yang%Liu%NULL%3,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%3,                   Shao-qin%Qiu%NULL%3,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%3,                   Shao-yong%Zhu%NULL%3,                   Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -617,22 +644,22 @@
         <v>43885.0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
@@ -652,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -664,7 +691,7 @@
         <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -681,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -693,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -722,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="94">
   <si>
     <t>Doi</t>
   </si>
@@ -322,6 +322,18 @@
   </si>
   <si>
     <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Zunyou%Wu%xref no email%1,  Jennifer M.%McGoogan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,             Eric%Yim%xref no email%0,             Lindy%Klaff%xref no email%0,             Sharukh%Lokhandwala%xref no email%0,             Francis X.%Riedo%xref no email%0,             Maria%Chong%xref no email%0,             Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                    Wenhua%Liang%NULL%0,                    Mei%Jiang%NULL%0,                    Weijie%Guan%NULL%0,                    Chen%Zhan%NULL%0,                    Tao%Wang%NULL%0,                    Chunli%Tang%NULL%0,                    Ling%Sang%NULL%0,                    Jiaxing%Liu%NULL%0,                    Zhengyi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chunliang%Lei%NULL%0,                    Yixiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Yahua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jianming%Wang%NULL%0,                    Jiyang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhijian%Zheng%NULL%0,                    Shaoqin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Changjiang%Ye%NULL%0,                    Shaoyong%Zhu%NULL%0,                    Xiaoqing%Liu%NULL%0,                    Linling%Cheng%NULL%0,                    Feng%Ye%NULL%0,                    Jinping%Zheng%NULL%0,                    Nuofu%Zhang%NULL%0,                    Yimin%Li%NULL%0,                    Jianxing%He%NULL%0,                    Shiyue%Li%lishiyue@188.com%0,                    Nanshan%Zhong%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%6,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%3,                    Chun-quan%Ou%NULL%3,                    Jian-xing%He%NULL%3,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%3,                    David S.C.%Hui%NULL%4,                    Bin%Du%NULL%3,                    Lan-juan%Li%NULL%3,                    Guang%Zeng%NULL%3,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%3,                    Chun-li%Tang%NULL%3,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%3,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%3,                    Jin-lin%Wang%NULL%3,                    Zi-jing%Liang%NULL%3,                    Yi-xiang%Peng%NULL%3,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%3,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%4,                    Ji-yang%Liu%NULL%3,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%3,                    Shao-qin%Qiu%NULL%3,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%3,                    Shao-yong%Zhu%NULL%3,                    Nan-shan%Zhong%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -650,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -679,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -708,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -737,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="111">
   <si>
     <t>Doi</t>
   </si>
@@ -334,6 +334,57 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%6,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%3,                    Chun-quan%Ou%NULL%3,                    Jian-xing%He%NULL%3,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%3,                    David S.C.%Hui%NULL%4,                    Bin%Du%NULL%3,                    Lan-juan%Li%NULL%3,                    Guang%Zeng%NULL%3,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%3,                    Chun-li%Tang%NULL%3,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%3,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%3,                    Jin-lin%Wang%NULL%3,                    Zi-jing%Liang%NULL%3,                    Yi-xiang%Peng%NULL%3,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%3,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%4,                    Ji-yang%Liu%NULL%3,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%3,                    Shao-qin%Qiu%NULL%3,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%3,                    Shao-yong%Zhu%NULL%3,                    Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Zunyou%Wu%xref no email%0, Jennifer M.%McGoogan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                     Wenhua%Liang%NULL%0,                     Mei%Jiang%NULL%0,                     Weijie%Guan%NULL%0,                     Chen%Zhan%NULL%0,                     Tao%Wang%NULL%0,                     Chunli%Tang%NULL%0,                     Ling%Sang%NULL%0,                     Jiaxing%Liu%NULL%0,                     Zhengyi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chunliang%Lei%NULL%0,                     Yixiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Yahua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jianming%Wang%NULL%0,                     Jiyang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhijian%Zheng%NULL%0,                     Shaoqin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Changjiang%Ye%NULL%0,                     Shaoyong%Zhu%NULL%0,                     Xiaoqing%Liu%NULL%0,                     Linling%Cheng%NULL%0,                     Feng%Ye%NULL%0,                     Jinping%Zheng%NULL%0,                     Nuofu%Zhang%NULL%0,                     Yimin%Li%NULL%0,                     Jianxing%He%NULL%0,                     Shiyue%Li%lishiyue@188.com%0,                     Nanshan%Zhong%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%6,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%3,                     Chun-quan%Ou%NULL%3,                     Jian-xing%He%NULL%3,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%3,                     David S.C.%Hui%NULL%4,                     Bin%Du%NULL%3,                     Lan-juan%Li%NULL%3,                     Guang%Zeng%NULL%3,                     Kwok-Yung%Yuen%NULL%0,                     Ru-chong%Chen%NULL%3,                     Chun-li%Tang%NULL%3,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%3,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%3,                     Jin-lin%Wang%NULL%3,                     Zi-jing%Liang%NULL%3,                     Yi-xiang%Peng%NULL%3,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%3,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%4,                     Ji-yang%Liu%NULL%3,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%3,                     Shao-qin%Qiu%NULL%3,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%3,                     Shao-yong%Zhu%NULL%3,                     Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                      Wenhua%Liang%NULL%0,                      Mei%Jiang%NULL%0,                      Weijie%Guan%NULL%0,                      Chen%Zhan%NULL%0,                      Tao%Wang%NULL%0,                      Chunli%Tang%NULL%0,                      Ling%Sang%NULL%0,                      Jiaxing%Liu%NULL%0,                      Zhengyi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chunliang%Lei%NULL%0,                      Yixiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Yahua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jianming%Wang%NULL%0,                      Jiyang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhijian%Zheng%NULL%0,                      Shaoqin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Changjiang%Ye%NULL%0,                      Shaoyong%Zhu%NULL%0,                      Xiaoqing%Liu%NULL%0,                      Linling%Cheng%NULL%0,                      Feng%Ye%NULL%0,                      Jinping%Zheng%NULL%0,                      Nuofu%Zhang%NULL%0,                      Yimin%Li%NULL%0,                      Jianxing%He%NULL%0,                      Shiyue%Li%lishiyue@188.com%0,                      Nanshan%Zhong%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%6,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%3,                      Chun-quan%Ou%NULL%3,                      Jian-xing%He%NULL%3,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%3,                      David S.C.%Hui%NULL%4,                      Bin%Du%NULL%3,                      Lan-juan%Li%NULL%3,                      Guang%Zeng%NULL%3,                      Kwok-Yung%Yuen%NULL%0,                      Ru-chong%Chen%NULL%3,                      Chun-li%Tang%NULL%3,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%3,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%3,                      Jin-lin%Wang%NULL%3,                      Zi-jing%Liang%NULL%3,                      Yi-xiang%Peng%NULL%3,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%3,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%4,                      Ji-yang%Liu%NULL%3,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%3,                      Shao-qin%Qiu%NULL%3,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%3,                      Shao-yong%Zhu%NULL%3,                      Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zunyou%Wu%xref no email%1,   Jennifer M.%McGoogan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                       Wenhua%Liang%NULL%0,                       Mei%Jiang%NULL%0,                       Weijie%Guan%NULL%0,                       Chen%Zhan%NULL%0,                       Tao%Wang%NULL%0,                       Chunli%Tang%NULL%0,                       Ling%Sang%NULL%0,                       Jiaxing%Liu%NULL%0,                       Zhengyi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chunliang%Lei%NULL%0,                       Yixiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Yahua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jianming%Wang%NULL%0,                       Jiyang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhijian%Zheng%NULL%0,                       Shaoqin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Changjiang%Ye%NULL%0,                       Shaoyong%Zhu%NULL%0,                       Xiaoqing%Liu%NULL%0,                       Linling%Cheng%NULL%0,                       Feng%Ye%NULL%0,                       Jinping%Zheng%NULL%0,                       Nuofu%Zhang%NULL%0,                       Yimin%Li%NULL%0,                       Jianxing%He%NULL%0,                       Shiyue%Li%lishiyue@188.com%0,                       Nanshan%Zhong%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%6,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%3,                       Chun-quan%Ou%NULL%3,                       Jian-xing%He%NULL%3,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%3,                       David S.C.%Hui%NULL%4,                       Bin%Du%NULL%3,                       Lan-juan%Li%NULL%3,                       Guang%Zeng%NULL%3,                       Kwok-Yung%Yuen%NULL%0,                       Ru-chong%Chen%NULL%3,                       Chun-li%Tang%NULL%3,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%3,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%3,                       Jin-lin%Wang%NULL%3,                       Zi-jing%Liang%NULL%3,                       Yi-xiang%Peng%NULL%3,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%3,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%4,                       Ji-yang%Liu%NULL%3,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%3,                       Shao-qin%Qiu%NULL%3,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%3,                       Shao-yong%Zhu%NULL%3,                       Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zunyou%Wu%xref no email%1,    Jennifer M.%McGoogan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                        Wenhua%Liang%NULL%0,                        Mei%Jiang%NULL%0,                        Weijie%Guan%NULL%0,                        Chen%Zhan%NULL%0,                        Tao%Wang%NULL%0,                        Chunli%Tang%NULL%0,                        Ling%Sang%NULL%0,                        Jiaxing%Liu%NULL%0,                        Zhengyi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chunliang%Lei%NULL%0,                        Yixiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Yahua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jianming%Wang%NULL%0,                        Jiyang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhijian%Zheng%NULL%0,                        Shaoqin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Changjiang%Ye%NULL%0,                        Shaoyong%Zhu%NULL%0,                        Xiaoqing%Liu%NULL%0,                        Linling%Cheng%NULL%0,                        Feng%Ye%NULL%0,                        Jinping%Zheng%NULL%0,                        Nuofu%Zhang%NULL%0,                        Yimin%Li%NULL%0,                        Jianxing%He%NULL%0,                        Shiyue%Li%lishiyue@188.com%0,                        Nanshan%Zhong%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%6,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%3,                        Chun-quan%Ou%NULL%3,                        Jian-xing%He%NULL%3,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%3,                        David S.C.%Hui%NULL%4,                        Bin%Du%NULL%3,                        Lan-juan%Li%NULL%3,                        Guang%Zeng%NULL%3,                        Kwok-Yung%Yuen%NULL%0,                        Ru-chong%Chen%NULL%3,                        Chun-li%Tang%NULL%3,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%3,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%3,                        Jin-lin%Wang%NULL%3,                        Zi-jing%Liang%NULL%3,                        Yi-xiang%Peng%NULL%3,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%3,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%4,                        Ji-yang%Liu%NULL%3,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%3,                        Shao-qin%Qiu%NULL%3,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%3,                        Shao-yong%Zhu%NULL%3,                        Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zunyou%Wu%xref no email%1,     Jennifer M.%McGoogan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                         Wenhua%Liang%NULL%0,                         Mei%Jiang%NULL%0,                         Weijie%Guan%NULL%0,                         Chen%Zhan%NULL%0,                         Tao%Wang%NULL%0,                         Chunli%Tang%NULL%0,                         Ling%Sang%NULL%0,                         Jiaxing%Liu%NULL%0,                         Zhengyi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chunliang%Lei%NULL%0,                         Yixiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Yahua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jianming%Wang%NULL%0,                         Jiyang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhijian%Zheng%NULL%0,                         Shaoqin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Changjiang%Ye%NULL%0,                         Shaoyong%Zhu%NULL%0,                         Xiaoqing%Liu%NULL%0,                         Linling%Cheng%NULL%0,                         Feng%Ye%NULL%0,                         Jinping%Zheng%NULL%0,                         Nuofu%Zhang%NULL%0,                         Yimin%Li%NULL%0,                         Jianxing%He%NULL%0,                         Shiyue%Li%lishiyue@188.com%0,                         Nanshan%Zhong%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%6,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%3,                         Chun-quan%Ou%NULL%3,                         Jian-xing%He%NULL%3,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%3,                         David S.C.%Hui%NULL%4,                         Bin%Du%NULL%3,                         Lan-juan%Li%NULL%3,                         Guang%Zeng%NULL%3,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%3,                         Chun-li%Tang%NULL%3,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%3,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%3,                         Jin-lin%Wang%NULL%3,                         Zi-jing%Liang%NULL%3,                         Yi-xiang%Peng%NULL%3,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%3,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%4,                         Ji-yang%Liu%NULL%3,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%3,                         Shao-qin%Qiu%NULL%3,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%3,                         Shao-yong%Zhu%NULL%3,                         Nan-shan%Zhong%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -647,6 +698,9 @@
       <c r="I1" t="s">
         <v>31</v>
       </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -662,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -671,10 +725,13 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -691,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -700,10 +757,13 @@
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +780,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -733,6 +793,9 @@
       </c>
       <c r="I4" t="s">
         <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -749,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -762,6 +825,9 @@
       </c>
       <c r="I5" t="s">
         <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/34.xlsx
+++ b/Covid_19_Dataset_and_References/References/34.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="117">
   <si>
     <t>Doi</t>
   </si>
@@ -385,6 +385,24 @@
   </si>
   <si>
     <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%6,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%3,                         Chun-quan%Ou%NULL%3,                         Jian-xing%He%NULL%3,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%3,                         David S.C.%Hui%NULL%4,                         Bin%Du%NULL%3,                         Lan-juan%Li%NULL%3,                         Guang%Zeng%NULL%3,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%3,                         Chun-li%Tang%NULL%3,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%3,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%3,                         Jin-lin%Wang%NULL%3,                         Zi-jing%Liang%NULL%3,                         Yi-xiang%Peng%NULL%3,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%3,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%4,                         Ji-yang%Liu%NULL%3,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%3,                         Shao-qin%Qiu%NULL%3,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%3,                         Shao-yong%Zhu%NULL%3,                         Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zunyou%Wu%xref no email%1,      Jennifer M.%McGoogan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                          Wenhua%Liang%NULL%0,                          Mei%Jiang%NULL%0,                          Weijie%Guan%NULL%0,                          Chen%Zhan%NULL%0,                          Tao%Wang%NULL%0,                          Chunli%Tang%NULL%0,                          Ling%Sang%NULL%0,                          Jiaxing%Liu%NULL%0,                          Zhengyi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chunliang%Lei%NULL%0,                          Yixiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Yahua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jianming%Wang%NULL%0,                          Jiyang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhijian%Zheng%NULL%0,                          Shaoqin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Changjiang%Ye%NULL%0,                          Shaoyong%Zhu%NULL%0,                          Xiaoqing%Liu%NULL%0,                          Linling%Cheng%NULL%0,                          Feng%Ye%NULL%0,                          Jinping%Zheng%NULL%0,                          Nuofu%Zhang%NULL%0,                          Yimin%Li%NULL%0,                          Jianxing%He%NULL%0,                          Shiyue%Li%lishiyue@188.com%0,                          Nanshan%Zhong%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%6,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%3,                          Chun-quan%Ou%NULL%3,                          Jian-xing%He%NULL%3,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%3,                          David S.C.%Hui%NULL%4,                          Bin%Du%NULL%3,                          Lan-juan%Li%NULL%3,                          Guang%Zeng%NULL%3,                          Kwok-Yung%Yuen%NULL%0,                          Ru-chong%Chen%NULL%3,                          Chun-li%Tang%NULL%3,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%3,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%3,                          Jin-lin%Wang%NULL%3,                          Zi-jing%Liang%NULL%3,                          Yi-xiang%Peng%NULL%3,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%3,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%4,                          Ji-yang%Liu%NULL%3,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%3,                          Shao-qin%Qiu%NULL%3,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%3,                          Shao-yong%Zhu%NULL%3,                          Nan-shan%Zhong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zunyou%Wu%xref no email%1,       Jennifer M.%McGoogan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                           Wenhua%Liang%NULL%0,                           Mei%Jiang%NULL%0,                           Weijie%Guan%NULL%0,                           Chen%Zhan%NULL%0,                           Tao%Wang%NULL%0,                           Chunli%Tang%NULL%0,                           Ling%Sang%NULL%0,                           Jiaxing%Liu%NULL%0,                           Zhengyi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chunliang%Lei%NULL%0,                           Yixiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Yahua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jianming%Wang%NULL%0,                           Jiyang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhijian%Zheng%NULL%0,                           Shaoqin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Changjiang%Ye%NULL%0,                           Shaoyong%Zhu%NULL%0,                           Xiaoqing%Liu%NULL%0,                           Linling%Cheng%NULL%0,                           Feng%Ye%NULL%0,                           Jinping%Zheng%NULL%0,                           Nuofu%Zhang%NULL%0,                           Yimin%Li%NULL%0,                           Jianxing%He%NULL%0,                           Shiyue%Li%lishiyue@188.com%0,                           Nanshan%Zhong%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%6,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%3,                           Chun-quan%Ou%NULL%3,                           Jian-xing%He%NULL%3,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%3,                           David S.C.%Hui%NULL%4,                           Bin%Du%NULL%3,                           Lan-juan%Li%NULL%3,                           Guang%Zeng%NULL%3,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%3,                           Chun-li%Tang%NULL%3,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%3,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%3,                           Jin-lin%Wang%NULL%3,                           Zi-jing%Liang%NULL%3,                           Yi-xiang%Peng%NULL%3,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%3,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%4,                           Ji-yang%Liu%NULL%3,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%3,                           Shao-qin%Qiu%NULL%3,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%3,                           Shao-yong%Zhu%NULL%3,                           Nan-shan%Zhong%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -716,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -748,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -780,7 +798,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -812,7 +830,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
